--- a/04_単体テスト/01_単体試験仕様書/チーム2/LSH_単体テスト仕様書_勤怠情報一覧（月別）.xlsx
+++ b/04_単体テスト/01_単体試験仕様書/チーム2/LSH_単体テスト仕様書_勤怠情報一覧（月別）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77914B6A-4838-483A-BA39-7B4A09857523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E816687F-C3DA-4B33-AFBC-F1E63DB7D357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期画面表示" sheetId="36" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="65">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -509,6 +509,17 @@
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
@@ -965,6 +976,54 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,83 +1045,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1082,9 +1075,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,14 +1087,35 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1785,110 +1796,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="27" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="31" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="31" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35" t="s">
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="23">
         <v>44733</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="1:42" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
@@ -12008,6 +12019,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -12018,13 +12036,6 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12040,8 +12051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ242"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="107" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31:AA32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="140" zoomScaleNormal="107" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -12059,110 +12070,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="str">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="26" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="27" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28" t="str">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="26" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="31" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32" t="str">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="34" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠管理システムWBS</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="31" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32" t="str">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="34" t="str">
         <f>初期画面表示!V2</f>
         <v>勤怠情報一覧（月別）</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35" t="s">
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -12203,24 +12214,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -12251,28 +12262,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="7" t="s">
         <v>17</v>
       </c>
@@ -12295,24 +12306,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -12333,26 +12344,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="7" t="s">
         <v>17</v>
       </c>
@@ -12383,26 +12394,26 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="7" t="s">
         <v>17</v>
       </c>
@@ -12433,26 +12444,26 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="7" t="s">
         <v>17</v>
       </c>
@@ -12483,26 +12494,26 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12523,7 +12534,7 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -12561,26 +12572,26 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -12601,26 +12612,26 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="7" t="s">
         <v>17</v>
       </c>
@@ -12651,26 +12662,26 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="7" t="s">
         <v>17</v>
       </c>
@@ -12701,24 +12712,24 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -12739,26 +12750,26 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -12779,26 +12790,26 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="7" t="s">
         <v>17</v>
       </c>
@@ -12829,24 +12840,24 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -12867,26 +12878,26 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -12907,26 +12918,26 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
       <c r="S20" s="7" t="s">
         <v>17</v>
       </c>
@@ -12957,26 +12968,26 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -12997,24 +13008,24 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -13035,28 +13046,28 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
       <c r="S23" s="7" t="s">
         <v>17</v>
       </c>
@@ -13088,25 +13099,25 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="7" t="s">
         <v>17</v>
       </c>
@@ -13138,25 +13149,25 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
       <c r="S25" s="7" t="s">
         <v>17</v>
       </c>
@@ -13226,25 +13237,25 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
       <c r="S27" s="7" t="s">
         <v>17</v>
       </c>
@@ -13276,23 +13287,23 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -13314,25 +13325,25 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
       <c r="S29" s="7" t="s">
         <v>17</v>
       </c>
@@ -13364,25 +13375,25 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="50"/>
       <c r="S30" s="7" t="s">
         <v>17</v>
       </c>
@@ -13414,111 +13425,111 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="45" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="T31" s="45" t="s">
+      <c r="T31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="U31" s="45" t="s">
+      <c r="U31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="V31" s="45" t="s">
+      <c r="V31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="45" t="s">
+      <c r="W31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -13539,31 +13550,41 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -13579,31 +13600,41 @@
       <c r="AJ34" s="8"/>
     </row>
     <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -13619,31 +13650,41 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="9">
+        <v>45103</v>
+      </c>
+      <c r="T36" s="9">
+        <v>45103</v>
+      </c>
+      <c r="U36" s="9">
+        <v>45103</v>
+      </c>
+      <c r="V36" s="9">
+        <v>45103</v>
+      </c>
+      <c r="W36" s="9">
+        <v>45103</v>
+      </c>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -13659,31 +13700,41 @@
       <c r="AJ36" s="10"/>
     </row>
     <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -13699,31 +13750,41 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="9">
+        <v>45103</v>
+      </c>
+      <c r="T38" s="9">
+        <v>45103</v>
+      </c>
+      <c r="U38" s="9">
+        <v>45103</v>
+      </c>
+      <c r="V38" s="9">
+        <v>45103</v>
+      </c>
+      <c r="W38" s="9">
+        <v>45103</v>
+      </c>
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -21492,6 +21553,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="B31:R32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A36:R36"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="B5:R5"/>
@@ -21508,59 +21622,6 @@
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B20:R20"/>
     <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A36:R36"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="A37:R37"/>
-    <mergeCell ref="B31:R32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="AI31:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -21581,8 +21642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDC11B8-2F6C-8C44-97F2-4787DFCC6DA8}">
   <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="107" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="120" zoomScaleNormal="107" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -21598,110 +21659,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="str">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="26" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="27" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28" t="str">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="26" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="31" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32" t="str">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="34" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠管理システムWBS</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="31" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32" t="str">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="34" t="str">
         <f>初期画面表示!V2</f>
         <v>勤怠情報一覧（月別）</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35" t="s">
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -21742,24 +21803,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -21804,28 +21865,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -21846,26 +21907,26 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="64"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="7" t="s">
         <v>17</v>
       </c>
@@ -21888,26 +21949,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7" t="s">
         <v>17</v>
@@ -21930,26 +21991,26 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7" t="s">
@@ -21972,26 +22033,26 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -22014,24 +22075,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -22052,26 +22113,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -22092,26 +22153,26 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="7" t="s">
         <v>17</v>
       </c>
@@ -22134,26 +22195,26 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
         <v>17</v>
@@ -22176,26 +22237,26 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7" t="s">
@@ -22218,26 +22279,26 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -22260,26 +22321,26 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -22302,26 +22363,26 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -22344,26 +22405,26 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -22386,26 +22447,26 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -22428,26 +22489,26 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -22470,26 +22531,26 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -22512,26 +22573,26 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -22554,26 +22615,26 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -22596,24 +22657,24 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
@@ -22634,26 +22695,26 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -22675,23 +22736,23 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="50"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -22713,23 +22774,23 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
@@ -22751,23 +22812,23 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
@@ -22789,23 +22850,23 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -22827,23 +22888,23 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="50"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -22865,99 +22926,99 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -22979,23 +23040,23 @@
     </row>
     <row r="34" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -23017,23 +23078,23 @@
     </row>
     <row r="35" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -23055,23 +23116,23 @@
     </row>
     <row r="36" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -23093,23 +23154,23 @@
     </row>
     <row r="37" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="60"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="56"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -23131,23 +23192,23 @@
     </row>
     <row r="38" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="60"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
@@ -23169,23 +23230,23 @@
     </row>
     <row r="39" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="60"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="56"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="50"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -23207,23 +23268,23 @@
     </row>
     <row r="40" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="60"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="56"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="50"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -23245,23 +23306,23 @@
     </row>
     <row r="41" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="60"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -23283,23 +23344,23 @@
     </row>
     <row r="42" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="60"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -23321,23 +23382,23 @@
     </row>
     <row r="43" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="60"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="50"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -23358,24 +23419,24 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="50"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -23396,38 +23457,62 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD45" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
@@ -23436,38 +23521,62 @@
       <c r="AJ45" s="8"/>
     </row>
     <row r="46" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD46" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
@@ -23476,38 +23585,62 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="T47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="U47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="V47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="W47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="X47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>45103</v>
+      </c>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
       <c r="AG47" s="10"/>
@@ -23516,38 +23649,62 @@
       <c r="AJ47" s="10"/>
     </row>
     <row r="48" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7"/>
-      <c r="AD48" s="7"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD48" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
@@ -23556,38 +23713,62 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="T49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="U49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="V49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="W49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="X49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>45103</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>45103</v>
+      </c>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
       <c r="AG49" s="10"/>
@@ -31349,6 +31530,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R32"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="B11:R11"/>
@@ -31365,72 +31612,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B16:R16"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A24"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R32"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
